--- a/output/CLARITAS_05109839000186.xlsx
+++ b/output/CLARITAS_05109839000186.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.005246693128718</v>
+        <v>5.021045326778191</v>
       </c>
       <c r="C192">
-        <v>0.0007497249046874987</v>
+        <v>0.003382502388528774</v>
       </c>
     </row>
   </sheetData>

--- a/output/CLARITAS_05109839000186.xlsx
+++ b/output/CLARITAS_05109839000186.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CLARITAS LONG SHORT FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.006947265226983967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.04417732058002399</v>
-      </c>
-      <c r="C3">
         <v>0.0369731927765331</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.05022260801019018</v>
-      </c>
-      <c r="C4">
         <v>0.00578952186665771</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.06876526834059593</v>
-      </c>
-      <c r="C5">
         <v>0.01765593331259341</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.1054301429753126</v>
-      </c>
-      <c r="C6">
         <v>0.03430582534895055</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.1337418997413433</v>
-      </c>
-      <c r="C7">
         <v>0.02561152954435308</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1463979304810106</v>
-      </c>
-      <c r="C8">
         <v>0.01116306166558245</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1763372095998836</v>
-      </c>
-      <c r="C9">
         <v>0.02611595705368286</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.2114401052347787</v>
-      </c>
-      <c r="C10">
         <v>0.02984084440110069</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.2362044862361437</v>
-      </c>
-      <c r="C11">
         <v>0.02044210101213828</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.2612249871073309</v>
-      </c>
-      <c r="C12">
         <v>0.020239775174548</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2960280122715209</v>
-      </c>
-      <c r="C13">
         <v>0.02759462072188401</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.3333958132270889</v>
-      </c>
-      <c r="C14">
         <v>0.02883255655105343</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.3352948644664169</v>
-      </c>
-      <c r="C15">
         <v>0.001424221690581096</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.3640666904442471</v>
-      </c>
-      <c r="C16">
         <v>0.02154717039919674</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.395669758137323</v>
-      </c>
-      <c r="C17">
         <v>0.02316827169409397</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3718091159632515</v>
-      </c>
-      <c r="C18">
         <v>-0.0170961948805971</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3983563752247448</v>
-      </c>
-      <c r="C19">
         <v>0.01935200674246307</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4162626981991648</v>
-      </c>
-      <c r="C20">
         <v>0.01280526430291573</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4114225609686637</v>
-      </c>
-      <c r="C21">
         <v>-0.003417541983316785</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4312873699609696</v>
-      </c>
-      <c r="C22">
         <v>0.01407431731760944</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4526739844453682</v>
-      </c>
-      <c r="C23">
         <v>0.01494222259851408</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.4838976601353164</v>
-      </c>
-      <c r="C24">
         <v>0.02149393189681814</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.5108158364407727</v>
-      </c>
-      <c r="C25">
         <v>0.01814018380688154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.5330710792073536</v>
-      </c>
-      <c r="C26">
         <v>0.01473061258016095</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.5238931386895698</v>
-      </c>
-      <c r="C27">
         <v>-0.005986637307468623</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.5447183696776088</v>
-      </c>
-      <c r="C28">
         <v>0.01366580796206418</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.5525018492195801</v>
-      </c>
-      <c r="C29">
         <v>0.005038769328285841</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.5862678475623402</v>
-      </c>
-      <c r="C30">
         <v>0.02174940941921188</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.6058282734433467</v>
-      </c>
-      <c r="C31">
         <v>0.01233109900768992</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.663356736511153</v>
-      </c>
-      <c r="C32">
         <v>0.03582479149183815</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.667637801597794</v>
-      </c>
-      <c r="C33">
         <v>0.002573750412446341</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.6439639937507631</v>
-      </c>
-      <c r="C34">
         <v>-0.01419601296177653</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.6643546904689013</v>
-      </c>
-      <c r="C35">
         <v>0.01240337184734575</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.6327647754721915</v>
-      </c>
-      <c r="C36">
         <v>-0.01898027816883785</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.6462517374354191</v>
-      </c>
-      <c r="C37">
         <v>0.008260198998552681</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.6302304324887229</v>
-      </c>
-      <c r="C38">
         <v>-0.009731989696578625</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.6681922510366556</v>
-      </c>
-      <c r="C39">
         <v>0.02328616727512545</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.6191818373480336</v>
-      </c>
-      <c r="C40">
         <v>-0.02937935580156648</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.6159893092242392</v>
-      </c>
-      <c r="C41">
         <v>-0.001971692153503346</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.6985895631758401</v>
-      </c>
-      <c r="C42">
         <v>0.05111435668547415</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.7186822054859512</v>
-      </c>
-      <c r="C43">
         <v>0.01182901552305782</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.6653929279987831</v>
-      </c>
-      <c r="C44">
         <v>-0.03100589353696181</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.6320239319639083</v>
-      </c>
-      <c r="C45">
         <v>-0.02003671054072065</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.5623074320053751</v>
-      </c>
-      <c r="C46">
         <v>-0.04271781717970224</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.5102765758897649</v>
-      </c>
-      <c r="C47">
         <v>-0.03330385239787503</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.5193858362189927</v>
-      </c>
-      <c r="C48">
         <v>0.006031517984618873</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.5709373618519744</v>
-      </c>
-      <c r="C49">
         <v>0.03392918665167244</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.578126273479558</v>
-      </c>
-      <c r="C50">
         <v>0.004576192407257151</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.5714527384271544</v>
-      </c>
-      <c r="C51">
         <v>-0.0042287712742336</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.5627011323811184</v>
-      </c>
-      <c r="C52">
         <v>-0.005569118200013712</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.6452395301372575</v>
-      </c>
-      <c r="C53">
         <v>0.05281777561034584</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.6971916351712788</v>
-      </c>
-      <c r="C54">
         <v>0.03157722877573144</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.8228408844577451</v>
-      </c>
-      <c r="C55">
         <v>0.07403362512671463</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>0.8889010448909234</v>
-      </c>
-      <c r="C56">
         <v>0.03624022315739839</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>0.9410570992669216</v>
-      </c>
-      <c r="C57">
         <v>0.02761185109038355</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>0.9662654800769945</v>
-      </c>
-      <c r="C58">
         <v>0.0129869341914739</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.000945123043474</v>
-      </c>
-      <c r="C59">
         <v>0.01763731465454077</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.037088897753965</v>
-      </c>
-      <c r="C60">
         <v>0.01806335131046244</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.088110628374747</v>
-      </c>
-      <c r="C61">
         <v>0.02504639374208795</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.113602369994815</v>
-      </c>
-      <c r="C62">
         <v>0.01220804169744061</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.136084455499558</v>
-      </c>
-      <c r="C63">
         <v>0.01063685668785408</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.163832022126908</v>
-      </c>
-      <c r="C64">
         <v>0.01298992020465795</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.172746248330942</v>
-      </c>
-      <c r="C65">
         <v>0.004119647973077178</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.203606381292045</v>
-      </c>
-      <c r="C66">
         <v>0.01420328443084817</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.233499653489738</v>
-      </c>
-      <c r="C67">
         <v>0.01356561337427498</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.270766745514972</v>
-      </c>
-      <c r="C68">
         <v>0.01668551502437232</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.307559129762577</v>
-      </c>
-      <c r="C69">
         <v>0.01620262597216304</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.332443040707485</v>
-      </c>
-      <c r="C70">
         <v>0.01078365040529605</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.372166715214241</v>
-      </c>
-      <c r="C71">
         <v>0.01703093015069146</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.401494146307182</v>
-      </c>
-      <c r="C72">
         <v>0.01236314079649015</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.44152341463369</v>
-      </c>
-      <c r="C73">
         <v>0.01666848465488102</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.451502403889148</v>
-      </c>
-      <c r="C74">
         <v>0.004087197851819324</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.462663044593859</v>
-      </c>
-      <c r="C75">
         <v>0.004552571797199256</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.498184889378945</v>
-      </c>
-      <c r="C76">
         <v>0.01442415959546905</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.521137472697837</v>
-      </c>
-      <c r="C77">
         <v>0.009187704007207476</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.55148154118123</v>
-      </c>
-      <c r="C78">
         <v>0.01203586429220871</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.577403486036872</v>
-      </c>
-      <c r="C79">
         <v>0.01015956589818834</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.597380956953866</v>
-      </c>
-      <c r="C80">
         <v>0.007751006400519955</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.614968302276919</v>
-      </c>
-      <c r="C81">
         <v>0.006771184363990601</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.633931474672062</v>
-      </c>
-      <c r="C82">
         <v>0.007251779066931974</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.617999299880322</v>
-      </c>
-      <c r="C83">
         <v>-0.006048819016342688</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.6430223817618</v>
-      </c>
-      <c r="C84">
         <v>0.009558093419895997</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.678009803326465</v>
-      </c>
-      <c r="C85">
         <v>0.01323765617956774</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.695446751143665</v>
-      </c>
-      <c r="C86">
         <v>0.006511159068776085</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.750189230979454</v>
-      </c>
-      <c r="C87">
         <v>0.02030924180288918</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.805036585683296</v>
-      </c>
-      <c r="C88">
         <v>0.01994312030823719</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.848157970377156</v>
-      </c>
-      <c r="C89">
         <v>0.0153728421632533</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.861033788726643</v>
-      </c>
-      <c r="C90">
         <v>0.00452075288077558</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.862056342078849</v>
-      </c>
-      <c r="C91">
         <v>0.0003574069471796726</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.895955556873882</v>
-      </c>
-      <c r="C92">
         <v>0.01184435620523483</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.918447509652511</v>
-      </c>
-      <c r="C93">
         <v>0.007766677470322891</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.916990752223618</v>
-      </c>
-      <c r="C94">
         <v>-0.000499154918522593</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.951620767150001</v>
-      </c>
-      <c r="C95">
         <v>0.01187182883592808</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>1.979064016704695</v>
-      </c>
-      <c r="C96">
         <v>0.00929768819223753</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>2.002259682764668</v>
-      </c>
-      <c r="C97">
         <v>0.007786226119984807</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>2.041828089415662</v>
-      </c>
-      <c r="C98">
         <v>0.01317954168926416</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>2.070248457736287</v>
-      </c>
-      <c r="C99">
         <v>0.009343186888015165</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>2.088231264465558</v>
-      </c>
-      <c r="C100">
         <v>0.005857117746923324</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2.127094675584892</v>
-      </c>
-      <c r="C101">
         <v>0.01258435906873667</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.164954877171152</v>
-      </c>
-      <c r="C102">
         <v>0.01210714913170285</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2.149722200194055</v>
-      </c>
-      <c r="C103">
         <v>-0.004812920742399918</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>2.126889609089207</v>
-      </c>
-      <c r="C104">
         <v>-0.007249080920038398</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>2.12302015185696</v>
-      </c>
-      <c r="C105">
         <v>-0.001237478042396933</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>2.155074439583695</v>
-      </c>
-      <c r="C106">
         <v>0.01026387476484114</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.172868122646307</v>
-      </c>
-      <c r="C107">
         <v>0.00563970308889461</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.17619468169897</v>
-      </c>
-      <c r="C108">
         <v>0.001048439116936306</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>2.157214471333974</v>
-      </c>
-      <c r="C109">
         <v>-0.005975770463428676</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>2.128303078187717</v>
-      </c>
-      <c r="C110">
         <v>-0.009157247126781898</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>2.118100372023191</v>
-      </c>
-      <c r="C111">
         <v>-0.00326141870193597</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>2.081492169550473</v>
-      </c>
-      <c r="C112">
         <v>-0.01174054652030487</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>2.113792913492294</v>
-      </c>
-      <c r="C113">
         <v>0.01048217622001402</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>2.118032649394956</v>
-      </c>
-      <c r="C114">
         <v>0.001361598545712939</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>2.13472749896966</v>
-      </c>
-      <c r="C115">
         <v>0.005354289531876111</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>2.124375583994853</v>
-      </c>
-      <c r="C116">
         <v>-0.003302333289962101</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>2.180047750341351</v>
-      </c>
-      <c r="C117">
         <v>0.01781865363168511</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>2.13861029050454</v>
-      </c>
-      <c r="C118">
         <v>-0.01303045208436338</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>2.146012760096634</v>
-      </c>
-      <c r="C119">
         <v>0.002358518231616369</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>2.175955286115447</v>
-      </c>
-      <c r="C120">
         <v>0.009517611116711677</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.214198489817309</v>
-      </c>
-      <c r="C121">
         <v>0.01204148051739051</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>2.168494988685104</v>
-      </c>
-      <c r="C122">
         <v>-0.01421925287968229</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.181066787135827</v>
-      </c>
-      <c r="C123">
         <v>0.003967750776194157</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.239025464445648</v>
-      </c>
-      <c r="C124">
         <v>0.01821988697131571</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>2.263009197146757</v>
-      </c>
-      <c r="C125">
         <v>0.007404613814980809</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.292299019232599</v>
-      </c>
-      <c r="C126">
         <v>0.008976322258439806</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.328952078453467</v>
-      </c>
-      <c r="C127">
         <v>0.01113296787647555</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.391572500606593</v>
-      </c>
-      <c r="C128">
         <v>0.01881085118600345</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.441394760350993</v>
-      </c>
-      <c r="C129">
         <v>0.01469001760554711</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>2.51130721897572</v>
-      </c>
-      <c r="C130">
         <v>0.02031515228366199</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>2.52472360764263</v>
-      </c>
-      <c r="C131">
         <v>0.003820909943284434</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>2.557477382177568</v>
-      </c>
-      <c r="C132">
         <v>0.00929257955543461</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>2.6064759419298</v>
-      </c>
-      <c r="C133">
         <v>0.01377340021828588</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>2.645403311474726</v>
-      </c>
-      <c r="C134">
         <v>0.01079374163912949</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>2.649658170226599</v>
-      </c>
-      <c r="C135">
         <v>0.001167184640031405</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>2.726147477827388</v>
-      </c>
-      <c r="C136">
         <v>0.02095793743775198</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>2.765963865085474</v>
-      </c>
-      <c r="C137">
         <v>0.01068567132541443</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>2.819516284551487</v>
-      </c>
-      <c r="C138">
         <v>0.0142201097473349</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>2.885232339629696</v>
-      </c>
-      <c r="C139">
         <v>0.01720533444090977</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>2.919294989059323</v>
-      </c>
-      <c r="C140">
         <v>0.008767210414210025</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>3.00726177976674</v>
-      </c>
-      <c r="C141">
         <v>0.02244454447878375</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.087430424850253</v>
-      </c>
-      <c r="C142">
         <v>0.02000584176663889</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>3.19484108873728</v>
-      </c>
-      <c r="C143">
         <v>0.02627828555417233</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>3.220189064231881</v>
-      </c>
-      <c r="C144">
         <v>0.006042654526927649</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>3.286637812549202</v>
-      </c>
-      <c r="C145">
         <v>0.01574544346377893</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>3.438159928973239</v>
-      </c>
-      <c r="C146">
         <v>0.03534754347112168</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>3.513084649047814</v>
-      </c>
-      <c r="C147">
         <v>0.01688193334031318</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>3.514359756183129</v>
-      </c>
-      <c r="C148">
         <v>0.0002825356124407374</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>3.562149027314079</v>
-      </c>
-      <c r="C149">
         <v>0.01058605731753981</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>3.602451343415856</v>
-      </c>
-      <c r="C150">
         <v>0.008834063916036694</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>3.675505166725835</v>
-      </c>
-      <c r="C151">
         <v>0.01587280730615181</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>3.698211772609802</v>
-      </c>
-      <c r="C152">
         <v>0.004856503217141706</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>3.738605574244797</v>
-      </c>
-      <c r="C153">
         <v>0.008597697079235189</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>3.792458574096925</v>
-      </c>
-      <c r="C154">
         <v>0.01136473568191221</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>3.852229445321077</v>
-      </c>
-      <c r="C155">
         <v>0.0124718597563287</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>3.84564368663145</v>
-      </c>
-      <c r="C156">
         <v>-0.001357264483025977</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>3.878022229597761</v>
-      </c>
-      <c r="C157">
         <v>0.006681990063701848</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>3.969263067630339</v>
-      </c>
-      <c r="C158">
         <v>0.01870447360386507</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>4.049940722063218</v>
-      </c>
-      <c r="C159">
         <v>0.01623533577008862</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>4.126420756737909</v>
-      </c>
-      <c r="C160">
         <v>0.01514473909377778</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>4.196063034765109</v>
-      </c>
-      <c r="C161">
         <v>0.01358497113910628</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>4.203646895999428</v>
-      </c>
-      <c r="C162">
         <v>0.001459539883095884</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>4.184593558843925</v>
-      </c>
-      <c r="C163">
         <v>-0.003661535368618352</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>4.228407050527651</v>
-      </c>
-      <c r="C164">
         <v>0.00845070904526124</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>4.261765507895773</v>
-      </c>
-      <c r="C165">
         <v>0.006380233414449821</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>4.287612763046361</v>
-      </c>
-      <c r="C166">
         <v>0.004912278038958773</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>4.359954040406514</v>
-      </c>
-      <c r="C167">
         <v>0.01368127368662964</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>4.390778473977941</v>
-      </c>
-      <c r="C168">
         <v>0.005750876470032029</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>4.455333388108718</v>
-      </c>
-      <c r="C169">
         <v>0.01197506342402921</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>4.51734052589543</v>
-      </c>
-      <c r="C170">
         <v>0.01136633334304959</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>4.539774144539548</v>
-      </c>
-      <c r="C171">
         <v>0.00406602031156611</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>4.555264366720509</v>
-      </c>
-      <c r="C172">
         <v>0.002796182980894679</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>4.536056212973302</v>
-      </c>
-      <c r="C173">
         <v>-0.003457648903673394</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>4.556259002236454</v>
-      </c>
-      <c r="C174">
         <v>0.003649310716139054</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>4.624517258896629</v>
-      </c>
-      <c r="C175">
         <v>0.01228493067596381</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>4.718253752274412</v>
-      </c>
-      <c r="C176">
         <v>0.01666569575006882</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>4.731718871956519</v>
-      </c>
-      <c r="C177">
         <v>0.002354760782826704</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>4.747561867064323</v>
-      </c>
-      <c r="C178">
         <v>0.002764091446515016</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>4.815184441251721</v>
-      </c>
-      <c r="C179">
         <v>0.0117654365018498</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>4.898832337736589</v>
-      </c>
-      <c r="C180">
         <v>0.01438439267574854</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>5.059632190074184</v>
-      </c>
-      <c r="C181">
         <v>0.02725960717834108</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>5.151069003282616</v>
-      </c>
-      <c r="C182">
         <v>0.01508949889041244</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>5.1121599924804</v>
-      </c>
-      <c r="C183">
         <v>-0.006325568902161738</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>4.887541133131758</v>
-      </c>
-      <c r="C184">
         <v>-0.03674950584163117</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>4.949208678204095</v>
-      </c>
-      <c r="C185">
         <v>0.01047424445585743</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>5.013753570970822</v>
-      </c>
-      <c r="C186">
         <v>0.0108493240459353</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>5.059641540045365</v>
-      </c>
-      <c r="C187">
         <v>0.007630503733317306</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>5.099400880922476</v>
-      </c>
-      <c r="C188">
         <v>0.006561335454310369</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>5.068932813880706</v>
-      </c>
-      <c r="C189">
         <v>-0.00499525570405901</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>5.006563707286137</v>
-      </c>
-      <c r="C190">
         <v>-0.01027678316884972</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>5.000747783069002</v>
-      </c>
-      <c r="C191">
         <v>-0.000968261472042653</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>5.021045326778191</v>
-      </c>
-      <c r="C192">
-        <v>0.003382502388528774</v>
+        <v>0.00034594709233704</v>
       </c>
     </row>
   </sheetData>
